--- a/MSE 551 HW2.xlsx
+++ b/MSE 551 HW2.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Problem 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Problem 3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>distance</t>
   </si>
@@ -109,6 +110,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Energy vs Distance: LJ units</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -142,7 +168,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -160,7 +186,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -312,7 +340,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C69D-418C-B046-2EB85EB11A9F}"/>
@@ -351,6 +379,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -413,6 +496,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -451,6 +589,645 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="383757784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="hundredThousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Energy vs. Distance: LJ units (more points)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Energy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94999999999999896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>875.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325.09800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.901000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7579999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3180999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98040000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.37880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.49170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.49080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.44550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.38679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.32850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.27579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.2303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.1338</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.11210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.4200000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.9399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.7199999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.7099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.8599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.1599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.5700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.0800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.6599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.3050000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-893F-4D2F-B758-F98D0DCF8DEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="363932272"/>
+        <c:axId val="363926696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="363932272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363926696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="363926696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363932272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -499,7 +1276,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1145,6 +1922,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1662,6 +2479,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2219,6 +3552,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A22790D-6CD6-410B-B501-9C9F21F75274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2559,7 +3933,7 @@
   <dimension ref="B1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,9 +4111,294 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C4">
+        <v>2537971</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>875.92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.65</v>
+      </c>
+      <c r="C6">
+        <v>325.09800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.7</v>
+      </c>
+      <c r="C7">
+        <v>127.495</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.75</v>
+      </c>
+      <c r="C8">
+        <v>51.901000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>21.474</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.85</v>
+      </c>
+      <c r="C10">
+        <v>8.7579999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.9</v>
+      </c>
+      <c r="C11">
+        <v>3.3180999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.94999999999999896</v>
+      </c>
+      <c r="C12">
+        <v>0.98040000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>-0.37880000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C15">
+        <v>-0.49170000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C16">
+        <v>-0.49080000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1.2</v>
+      </c>
+      <c r="C17">
+        <v>-0.44550000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1.25</v>
+      </c>
+      <c r="C18">
+        <v>-0.38679999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1.3</v>
+      </c>
+      <c r="C19">
+        <v>-0.32850000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1.35</v>
+      </c>
+      <c r="C20">
+        <v>-0.27579999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1.4</v>
+      </c>
+      <c r="C21">
+        <v>-0.2303</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1.45</v>
+      </c>
+      <c r="C22">
+        <v>-0.192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="C23">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1.55</v>
+      </c>
+      <c r="C24">
+        <v>-0.1338</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1.6</v>
+      </c>
+      <c r="C25">
+        <v>-0.11210000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1.65</v>
+      </c>
+      <c r="C26">
+        <v>-9.4200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1.7</v>
+      </c>
+      <c r="C27">
+        <v>-7.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1.75</v>
+      </c>
+      <c r="C28">
+        <v>-6.7199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1.8</v>
+      </c>
+      <c r="C29">
+        <v>-5.7099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1.85</v>
+      </c>
+      <c r="C30">
+        <v>-4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1.9</v>
+      </c>
+      <c r="C31">
+        <v>-4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1.95</v>
+      </c>
+      <c r="C32">
+        <v>-3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>-3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C34">
+        <v>-2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2.1</v>
+      </c>
+      <c r="C35">
+        <v>-2.3050000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
